--- a/documents/plans.xlsx
+++ b/documents/plans.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
